--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1140788.365172319</v>
+        <v>1137940.175545483</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.86094179307566</v>
+        <v>13.86094179307565</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>22.82047985378859</v>
+        <v>5.507868067058701</v>
       </c>
       <c r="L2" t="n">
-        <v>8.240236561099636</v>
+        <v>8.240236561098186</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -698,13 +698,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.507868067054227</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>22.82047985378859</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22.82047985378859</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.8276607505876</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22.82047985378859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="K3" t="n">
-        <v>13.27261790462939</v>
+        <v>13.27261790462859</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>6.827660750589787</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>25.81031612124779</v>
+        <v>13.70732065777799</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -941,7 +941,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="R5" t="n">
-        <v>49.79500702712463</v>
+        <v>16.2611094610167</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>16.44799022605971</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>49.79500702712463</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>112.1126601249237</v>
+        <v>81.3019674773121</v>
       </c>
       <c r="G8" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>18.59473170946475</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>15.61164031771693</v>
       </c>
       <c r="R8" t="n">
-        <v>64.54245901085127</v>
+        <v>95.35315165846217</v>
       </c>
       <c r="S8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1218,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>69.17729809440617</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>9.256558775821503</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>89.49227226221103</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>112.1126601249234</v>
       </c>
     </row>
     <row r="10">
@@ -1321,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>3.625377488803504</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>158.65466633706</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1427,13 +1427,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>189.1031028566747</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>57.52725256437295</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>179.4019288746547</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>290.659076479549</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>410.3099034802228</v>
       </c>
       <c r="H14" t="n">
-        <v>288.3419405557222</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>95.24586401568268</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>197.0706469630096</v>
       </c>
       <c r="U14" t="n">
         <v>250.9462261850435</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>128.8045508525498</v>
+        <v>149.6174093046088</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1844,22 +1844,22 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
         <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200478</v>
+        <v>342.2292462359817</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.6997011280088</v>
+        <v>378.6997011280089</v>
       </c>
       <c r="H17" t="n">
-        <v>256.7317382035082</v>
+        <v>256.7317382035083</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.6356616634687</v>
+        <v>63.63566166346871</v>
       </c>
       <c r="T17" t="n">
-        <v>169.6295162240891</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>41.61558612467419</v>
+        <v>219.3360238328296</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1938,10 +1938,10 @@
         <v>134.6721154434932</v>
       </c>
       <c r="H18" t="n">
-        <v>86.43532762764654</v>
+        <v>86.43532762764653</v>
       </c>
       <c r="I18" t="n">
-        <v>7.546487457097243</v>
+        <v>7.546487457097228</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
         <v>117.0052706659984</v>
@@ -2014,13 +2014,13 @@
         <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
-        <v>134.1411635426335</v>
+        <v>134.1411635426336</v>
       </c>
       <c r="H19" t="n">
-        <v>110.7047704514819</v>
+        <v>110.704770451482</v>
       </c>
       <c r="I19" t="n">
-        <v>56.48898768753513</v>
+        <v>56.48898768753514</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>44.98202365203525</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3760410507332</v>
+        <v>82.99967033167523</v>
       </c>
       <c r="T19" t="n">
-        <v>186.7661295497285</v>
+        <v>186.7661295497286</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5866662698981</v>
+        <v>254.5866662698982</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>184.5364252653203</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998808</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>173.4032016031122</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2090,13 +2090,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.6997011280088</v>
+        <v>378.6997011280089</v>
       </c>
       <c r="H20" t="n">
-        <v>256.7317382035082</v>
+        <v>256.7317382035083</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.6356616634687</v>
+        <v>63.63566166346871</v>
       </c>
       <c r="T20" t="n">
-        <v>169.629516224089</v>
+        <v>169.6295162240891</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3360238328295</v>
+        <v>219.3360238328296</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>176.9072985956846</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
-        <v>65.26024802735675</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
         <v>117.0052706659984</v>
@@ -2248,16 +2248,16 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707173</v>
+        <v>43.43447495165954</v>
       </c>
       <c r="G22" t="n">
-        <v>134.1411635426335</v>
+        <v>134.1411635426336</v>
       </c>
       <c r="H22" t="n">
-        <v>110.7047704514819</v>
+        <v>110.704770451482</v>
       </c>
       <c r="I22" t="n">
-        <v>56.48898768753511</v>
+        <v>56.48898768753514</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.98202365203521</v>
+        <v>44.98202365203525</v>
       </c>
       <c r="S22" t="n">
         <v>153.3760410507332</v>
       </c>
       <c r="T22" t="n">
-        <v>186.7661295497285</v>
+        <v>186.7661295497286</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5866662698981</v>
+        <v>254.5866662698982</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
         <v>186.9744509998808</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139452959</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295188</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V26" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W26" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X26" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943534</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453025</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221589</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187934</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.3201464229519</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453027</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221243</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453096</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D35" t="n">
         <v>323.0728392684691</v>
@@ -3275,13 +3275,13 @@
         <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295189</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E37" t="n">
-        <v>114.823760294354</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707174</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442972</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453026</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221591</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V37" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W37" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368233</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D38" t="n">
         <v>323.072839268469</v>
@@ -3512,10 +3512,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y38" t="n">
         <v>354.6277363038396</v>
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T39" t="n">
         <v>189.0833237787849</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,13 +3715,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D41" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545738</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221558</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V43" t="n">
         <v>220.5274409716141</v>
@@ -3961,10 +3961,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
         <v>113.8108456707173</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221577</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="C2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="D2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="E2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="F2" t="n">
-        <v>78.77291556791631</v>
+        <v>61.28542891465403</v>
       </c>
       <c r="G2" t="n">
-        <v>64.77196426177929</v>
+        <v>47.28447760851702</v>
       </c>
       <c r="H2" t="n">
-        <v>64.77196426177929</v>
+        <v>47.28447760851702</v>
       </c>
       <c r="I2" t="n">
-        <v>64.77196426177929</v>
+        <v>47.28447760851702</v>
       </c>
       <c r="J2" t="n">
-        <v>64.77196426177929</v>
+        <v>47.28447760851702</v>
       </c>
       <c r="K2" t="n">
-        <v>41.72097451047768</v>
+        <v>41.72097451047792</v>
       </c>
       <c r="L2" t="n">
-        <v>33.39750323663966</v>
+        <v>33.39750323664137</v>
       </c>
       <c r="M2" t="n">
-        <v>55.98977829189037</v>
+        <v>55.98977829189365</v>
       </c>
       <c r="N2" t="n">
-        <v>78.58205334714108</v>
+        <v>78.58205334714593</v>
       </c>
       <c r="O2" t="n">
-        <v>91.28191941515436</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="P2" t="n">
-        <v>85.71841631711979</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.71841631711979</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="R2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="S2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="T2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="U2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="V2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="W2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="X2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="Y2" t="n">
-        <v>85.71841631711979</v>
+        <v>68.23092966385751</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.28191941515436</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="C3" t="n">
-        <v>68.23092966385275</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="D3" t="n">
-        <v>45.17993991255114</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="E3" t="n">
-        <v>45.17993991255114</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="F3" t="n">
-        <v>38.28331289175559</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="G3" t="n">
-        <v>38.28331289175559</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="H3" t="n">
-        <v>38.28331289175559</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="I3" t="n">
-        <v>15.23232314045398</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="J3" t="n">
-        <v>15.23232314045398</v>
+        <v>15.23232314045331</v>
       </c>
       <c r="K3" t="n">
-        <v>1.825638388303087</v>
+        <v>1.825638388303215</v>
       </c>
       <c r="L3" t="n">
-        <v>24.41791344355379</v>
+        <v>24.41791344355549</v>
       </c>
       <c r="M3" t="n">
-        <v>47.0101884988045</v>
+        <v>32.89607212615384</v>
       </c>
       <c r="N3" t="n">
-        <v>69.60246355405521</v>
+        <v>55.48834718140612</v>
       </c>
       <c r="O3" t="n">
-        <v>78.08062223665296</v>
+        <v>78.0806222366584</v>
       </c>
       <c r="P3" t="n">
-        <v>91.28191941515436</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="Q3" t="n">
-        <v>91.28191941515436</v>
+        <v>68.23092966385751</v>
       </c>
       <c r="R3" t="n">
-        <v>91.28191941515436</v>
+        <v>45.17993991255429</v>
       </c>
       <c r="S3" t="n">
-        <v>91.28191941515436</v>
+        <v>45.17993991255429</v>
       </c>
       <c r="T3" t="n">
-        <v>91.28191941515436</v>
+        <v>45.17993991255429</v>
       </c>
       <c r="U3" t="n">
-        <v>91.28191941515436</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="V3" t="n">
-        <v>91.28191941515436</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="W3" t="n">
-        <v>91.28191941515436</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="X3" t="n">
-        <v>91.28191941515436</v>
+        <v>38.28331289175652</v>
       </c>
       <c r="Y3" t="n">
-        <v>91.28191941515436</v>
+        <v>38.28331289175652</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="C4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="D4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="E4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="F4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="G4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="H4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="I4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="J4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="K4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="L4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="M4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="N4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="O4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="P4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="R4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="S4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="T4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="U4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="V4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="W4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="X4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.825638388303087</v>
+        <v>91.28191941516073</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="C5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="D5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="E5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="F5" t="n">
-        <v>47.37467136741799</v>
+        <v>81.2472951715674</v>
       </c>
       <c r="G5" t="n">
-        <v>21.30364498231921</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="H5" t="n">
-        <v>21.30364498231921</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="I5" t="n">
-        <v>21.30364498231921</v>
+        <v>67.40151672936742</v>
       </c>
       <c r="J5" t="n">
         <v>21.30364498231921</v>
@@ -4589,28 +4589,28 @@
         <v>104.6181590127069</v>
       </c>
       <c r="R5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="S5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="T5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="U5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="V5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="W5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="X5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.32017211662146</v>
+        <v>88.19279592077088</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>117.551221084159</v>
       </c>
       <c r="G6" t="n">
-        <v>100.9370895426845</v>
+        <v>117.551221084159</v>
       </c>
       <c r="H6" t="n">
         <v>100.9370895426845</v>
@@ -4653,13 +4653,13 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516709</v>
+        <v>198.1973125878844</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.2417925668747</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="C8" t="n">
-        <v>254.2417925668747</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2417925668747</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2417925668747</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="F8" t="n">
-        <v>140.996681329578</v>
+        <v>140.9966813295779</v>
       </c>
       <c r="G8" t="n">
-        <v>27.75157009228141</v>
+        <v>27.7515700922815</v>
       </c>
       <c r="H8" t="n">
-        <v>27.75157009228141</v>
+        <v>27.7515700922815</v>
       </c>
       <c r="I8" t="n">
-        <v>27.75157009228141</v>
+        <v>27.7515700922815</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687528</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773399</v>
+        <v>97.73708609773374</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083929</v>
+        <v>202.4209174083924</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320674</v>
+        <v>313.4124509320668</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416797</v>
+        <v>404.8833474416789</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996937</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454352</v>
+        <v>432.6813068454342</v>
       </c>
       <c r="R8" t="n">
-        <v>367.4869038041713</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="S8" t="n">
-        <v>254.2417925668747</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="T8" t="n">
-        <v>254.2417925668747</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="U8" t="n">
-        <v>254.2417925668747</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="V8" t="n">
-        <v>254.2417925668747</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="W8" t="n">
-        <v>254.2417925668747</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="X8" t="n">
-        <v>254.2417925668747</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="Y8" t="n">
-        <v>254.2417925668747</v>
+        <v>223.1198808016103</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>439.100581130178</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="C9" t="n">
-        <v>439.100581130178</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="D9" t="n">
-        <v>439.100581130178</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="E9" t="n">
-        <v>369.2245224489596</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="F9" t="n">
-        <v>255.979411211663</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="G9" t="n">
-        <v>142.7342999743664</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="H9" t="n">
-        <v>39.35570072784915</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="I9" t="n">
-        <v>39.35570072784915</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="K9" t="n">
-        <v>36.22166818534551</v>
+        <v>36.2216681853454</v>
       </c>
       <c r="L9" t="n">
-        <v>119.1887676792232</v>
+        <v>119.188767679223</v>
       </c>
       <c r="M9" t="n">
-        <v>230.1803012028977</v>
+        <v>230.1803012028972</v>
       </c>
       <c r="N9" t="n">
-        <v>341.1718347265721</v>
+        <v>287.4309731640687</v>
       </c>
       <c r="O9" t="n">
-        <v>441.223936157822</v>
+        <v>387.4830745953186</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996937</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.100581130178</v>
+        <v>439.100581130177</v>
       </c>
       <c r="R9" t="n">
-        <v>439.100581130178</v>
+        <v>439.100581130177</v>
       </c>
       <c r="S9" t="n">
-        <v>439.100581130178</v>
+        <v>439.100581130177</v>
       </c>
       <c r="T9" t="n">
-        <v>439.100581130178</v>
+        <v>439.100581130177</v>
       </c>
       <c r="U9" t="n">
-        <v>439.100581130178</v>
+        <v>439.100581130177</v>
       </c>
       <c r="V9" t="n">
-        <v>439.100581130178</v>
+        <v>348.7043465218831</v>
       </c>
       <c r="W9" t="n">
-        <v>439.100581130178</v>
+        <v>235.4592352845867</v>
       </c>
       <c r="X9" t="n">
-        <v>439.100581130178</v>
+        <v>122.2141240472903</v>
       </c>
       <c r="Y9" t="n">
-        <v>439.100581130178</v>
+        <v>8.969012809993874</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="N10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="O10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="P10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="R10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="S10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="T10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="U10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="V10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1601.11348746897</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C11" t="n">
-        <v>1232.150970528559</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.150970528559</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528559</v>
+        <v>977.335759097858</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389512</v>
+        <v>566.3498543082505</v>
       </c>
       <c r="G11" t="n">
         <v>406.0926155839475</v>
@@ -5039,22 +5039,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5075,16 +5075,16 @@
         <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923659</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X11" t="n">
-        <v>1991.252819444782</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y11" t="n">
-        <v>1601.11348746897</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.3683227675135</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C13" t="n">
-        <v>380.4321398396066</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D13" t="n">
-        <v>380.4321398396066</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4321398396066</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415546</v>
+        <v>1869.186212164884</v>
       </c>
       <c r="U13" t="n">
-        <v>1615.697475415546</v>
+        <v>1580.083345290527</v>
       </c>
       <c r="V13" t="n">
-        <v>1361.012987209659</v>
+        <v>1325.39885708464</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.798917639301</v>
+        <v>1035.98168704768</v>
       </c>
       <c r="X13" t="n">
-        <v>951.8093667412834</v>
+        <v>807.9921361496623</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.0167875977533</v>
+        <v>807.9921361496623</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2218.950338535579</v>
+        <v>2019.889078976984</v>
       </c>
       <c r="C14" t="n">
-        <v>1849.987821595167</v>
+        <v>1650.926562036572</v>
       </c>
       <c r="D14" t="n">
-        <v>1491.722122988417</v>
+        <v>1292.660863429821</v>
       </c>
       <c r="E14" t="n">
-        <v>1198.127096241398</v>
+        <v>906.8726108315773</v>
       </c>
       <c r="F14" t="n">
-        <v>787.1411914517903</v>
+        <v>495.8867060419698</v>
       </c>
       <c r="G14" t="n">
-        <v>372.6867434919692</v>
+        <v>81.43225808214881</v>
       </c>
       <c r="H14" t="n">
         <v>81.43225808214881</v>
@@ -5279,7 +5279,7 @@
         <v>321.7197547946562</v>
       </c>
       <c r="K14" t="n">
-        <v>732.5869425049082</v>
+        <v>732.5869425049095</v>
       </c>
       <c r="L14" t="n">
         <v>1279.20578207939</v>
@@ -5291,13 +5291,13 @@
         <v>2573.950088109354</v>
       </c>
       <c r="O14" t="n">
-        <v>3178.976860646705</v>
+        <v>3178.976860646706</v>
       </c>
       <c r="P14" t="n">
-        <v>3660.852212359282</v>
+        <v>3660.852212359284</v>
       </c>
       <c r="Q14" t="n">
-        <v>3974.54778670733</v>
+        <v>3974.547786707331</v>
       </c>
       <c r="R14" t="n">
         <v>4071.61290410744</v>
@@ -5306,22 +5306,22 @@
         <v>3975.404960657256</v>
       </c>
       <c r="T14" t="n">
-        <v>3975.404960657256</v>
+        <v>3776.34370109866</v>
       </c>
       <c r="U14" t="n">
-        <v>3721.923924106707</v>
+        <v>3522.862664548111</v>
       </c>
       <c r="V14" t="n">
-        <v>3721.923924106707</v>
+        <v>3522.862664548111</v>
       </c>
       <c r="W14" t="n">
-        <v>3369.155268836592</v>
+        <v>3170.094009277997</v>
       </c>
       <c r="X14" t="n">
-        <v>2995.689510575513</v>
+        <v>2796.628251016917</v>
       </c>
       <c r="Y14" t="n">
-        <v>2605.550178599701</v>
+        <v>2406.488919041105</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5361,22 @@
         <v>496.324039868047</v>
       </c>
       <c r="L15" t="n">
-        <v>496.324039868047</v>
+        <v>933.3888210494157</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.714892665052</v>
+        <v>1462.779673846421</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.525790999695</v>
+        <v>2020.590572181064</v>
       </c>
       <c r="O15" t="n">
-        <v>2071.593990572574</v>
+        <v>2020.590572181064</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.414084216033</v>
+        <v>2338.434165434757</v>
       </c>
       <c r="Q15" t="n">
-        <v>2557.424193196089</v>
+        <v>2537.444274414813</v>
       </c>
       <c r="R15" t="n">
         <v>2557.424193196089</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3639954297336</v>
+        <v>527.3639954297339</v>
       </c>
       <c r="C16" t="n">
-        <v>358.4278125018267</v>
+        <v>527.3639954297339</v>
       </c>
       <c r="D16" t="n">
-        <v>358.4278125018267</v>
+        <v>527.3639954297339</v>
       </c>
       <c r="E16" t="n">
-        <v>358.4278125018267</v>
+        <v>379.4509018473408</v>
       </c>
       <c r="F16" t="n">
-        <v>211.5378650039163</v>
+        <v>232.5609543494304</v>
       </c>
       <c r="G16" t="n">
         <v>81.43225808214881</v>
@@ -5455,31 +5455,31 @@
         <v>2111.204854362884</v>
       </c>
       <c r="Q16" t="n">
-        <v>2211.566148063615</v>
+        <v>2211.566148063616</v>
       </c>
       <c r="R16" t="n">
-        <v>2211.566148063615</v>
+        <v>2211.566148063616</v>
       </c>
       <c r="S16" t="n">
-        <v>2211.566148063615</v>
+        <v>2211.566148063616</v>
       </c>
       <c r="T16" t="n">
         <v>1990.98399462731</v>
       </c>
       <c r="U16" t="n">
-        <v>1701.896248544368</v>
+        <v>1701.896248544369</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.211760338481</v>
+        <v>1447.211760338482</v>
       </c>
       <c r="W16" t="n">
         <v>1157.794590301521</v>
       </c>
       <c r="X16" t="n">
-        <v>929.8050394035034</v>
+        <v>929.8050394035038</v>
       </c>
       <c r="Y16" t="n">
-        <v>709.0124602599733</v>
+        <v>709.0124602599736</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2119.566580433992</v>
+        <v>2111.393932470288</v>
       </c>
       <c r="C17" t="n">
-        <v>1782.533560819049</v>
+        <v>1774.360912855345</v>
       </c>
       <c r="D17" t="n">
-        <v>1456.197359537767</v>
+        <v>1448.024711574064</v>
       </c>
       <c r="E17" t="n">
         <v>1102.338604264992</v>
       </c>
       <c r="F17" t="n">
-        <v>723.2821968008528</v>
+        <v>723.2821968008529</v>
       </c>
       <c r="G17" t="n">
-        <v>340.7572461665005</v>
+        <v>340.7572461665006</v>
       </c>
       <c r="H17" t="n">
         <v>81.43225808214881</v>
@@ -5513,13 +5513,13 @@
         <v>81.43225808214881</v>
       </c>
       <c r="J17" t="n">
-        <v>321.7197547946562</v>
+        <v>321.7197547946558</v>
       </c>
       <c r="K17" t="n">
         <v>732.5869425049082</v>
       </c>
       <c r="L17" t="n">
-        <v>1279.20578207939</v>
+        <v>1279.205782079391</v>
       </c>
       <c r="M17" t="n">
         <v>1919.094000724846</v>
@@ -5531,7 +5531,7 @@
         <v>3178.976860646705</v>
       </c>
       <c r="P17" t="n">
-        <v>3660.852212359282</v>
+        <v>3660.852212359283</v>
       </c>
       <c r="Q17" t="n">
         <v>3974.54778670733</v>
@@ -5543,22 +5543,22 @@
         <v>4007.334457982724</v>
       </c>
       <c r="T17" t="n">
-        <v>3835.991512301826</v>
+        <v>4007.334457982724</v>
       </c>
       <c r="U17" t="n">
-        <v>3793.955566721347</v>
+        <v>3785.782918757644</v>
       </c>
       <c r="V17" t="n">
-        <v>3494.822176703245</v>
+        <v>3486.649528739541</v>
       </c>
       <c r="W17" t="n">
-        <v>3173.983018758599</v>
+        <v>3165.810370794896</v>
       </c>
       <c r="X17" t="n">
-        <v>2832.446757822988</v>
+        <v>2824.274109859284</v>
       </c>
       <c r="Y17" t="n">
-        <v>2474.236923172645</v>
+        <v>2466.064275208941</v>
       </c>
     </row>
     <row r="18">
@@ -5577,43 +5577,43 @@
         <v>618.1678372508577</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9303822454023</v>
+        <v>458.9303822454021</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3958242722872</v>
+        <v>312.3958242722871</v>
       </c>
       <c r="G18" t="n">
-        <v>176.3633844303749</v>
+        <v>176.3633844303748</v>
       </c>
       <c r="H18" t="n">
-        <v>89.05497268527733</v>
+        <v>89.05497268527732</v>
       </c>
       <c r="I18" t="n">
         <v>81.43225808214881</v>
       </c>
       <c r="J18" t="n">
-        <v>205.727998032977</v>
+        <v>205.7279980329771</v>
       </c>
       <c r="K18" t="n">
-        <v>496.324039868047</v>
+        <v>496.3240398680471</v>
       </c>
       <c r="L18" t="n">
-        <v>933.3888210494157</v>
+        <v>933.3888210494159</v>
       </c>
       <c r="M18" t="n">
-        <v>933.3888210494157</v>
+        <v>1462.779673846421</v>
       </c>
       <c r="N18" t="n">
-        <v>1491.199719384059</v>
+        <v>2020.590572181065</v>
       </c>
       <c r="O18" t="n">
-        <v>1979.267918956938</v>
+        <v>2185.039500429579</v>
       </c>
       <c r="P18" t="n">
-        <v>2351.652611723448</v>
+        <v>2557.424193196089</v>
       </c>
       <c r="Q18" t="n">
-        <v>2550.662720703504</v>
+        <v>2557.424193196089</v>
       </c>
       <c r="R18" t="n">
         <v>2557.424193196089</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>871.9488409701643</v>
+        <v>871.9488409701644</v>
       </c>
       <c r="C19" t="n">
         <v>734.9421553677261</v>
@@ -5665,25 +5665,25 @@
         <v>250.3148420609539</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4918416049115</v>
+        <v>138.4918416049116</v>
       </c>
       <c r="I19" t="n">
         <v>81.43225808214881</v>
       </c>
       <c r="J19" t="n">
-        <v>177.0580352538767</v>
+        <v>177.0580352538769</v>
       </c>
       <c r="K19" t="n">
-        <v>443.9056792595101</v>
+        <v>443.9056792595104</v>
       </c>
       <c r="L19" t="n">
-        <v>832.1536518510002</v>
+        <v>832.1536518510004</v>
       </c>
       <c r="M19" t="n">
         <v>1250.194684949353</v>
       </c>
       <c r="N19" t="n">
-        <v>1664.474356830194</v>
+        <v>1664.474356830195</v>
       </c>
       <c r="O19" t="n">
         <v>2033.501324983835</v>
@@ -5692,25 +5692,25 @@
         <v>2330.263556663727</v>
       </c>
       <c r="Q19" t="n">
-        <v>2461.918950693151</v>
+        <v>2461.91895069315</v>
       </c>
       <c r="R19" t="n">
         <v>2416.482563165842</v>
       </c>
       <c r="S19" t="n">
-        <v>2261.557269175203</v>
+        <v>2332.644512325766</v>
       </c>
       <c r="T19" t="n">
-        <v>2072.904613064366</v>
+        <v>2143.991856214928</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.746364306893</v>
+        <v>1886.833607457456</v>
       </c>
       <c r="V19" t="n">
-        <v>1592.991373426475</v>
+        <v>1664.078616577038</v>
       </c>
       <c r="W19" t="n">
-        <v>1406.590943865545</v>
+        <v>1406.590943865546</v>
       </c>
       <c r="X19" t="n">
         <v>1210.530890292997</v>
@@ -5732,16 +5732,16 @@
         <v>1782.533560819049</v>
       </c>
       <c r="D20" t="n">
-        <v>1456.197359537767</v>
+        <v>1456.197359537768</v>
       </c>
       <c r="E20" t="n">
         <v>1102.338604264992</v>
       </c>
       <c r="F20" t="n">
-        <v>723.2821968008528</v>
+        <v>723.2821968008532</v>
       </c>
       <c r="G20" t="n">
-        <v>340.7572461665005</v>
+        <v>340.7572461665006</v>
       </c>
       <c r="H20" t="n">
         <v>81.43225808214882</v>
@@ -5750,25 +5750,25 @@
         <v>81.43225808214882</v>
       </c>
       <c r="J20" t="n">
-        <v>321.7197547946557</v>
+        <v>321.7197547946562</v>
       </c>
       <c r="K20" t="n">
-        <v>732.5869425049082</v>
+        <v>732.5869425049091</v>
       </c>
       <c r="L20" t="n">
-        <v>1279.20578207939</v>
+        <v>1279.205782079391</v>
       </c>
       <c r="M20" t="n">
-        <v>1919.094000724845</v>
+        <v>1919.094000724847</v>
       </c>
       <c r="N20" t="n">
-        <v>2573.950088109354</v>
+        <v>2573.950088109355</v>
       </c>
       <c r="O20" t="n">
         <v>3178.976860646706</v>
       </c>
       <c r="P20" t="n">
-        <v>3660.852212359283</v>
+        <v>3660.852212359284</v>
       </c>
       <c r="Q20" t="n">
         <v>3974.547786707331</v>
@@ -5780,7 +5780,7 @@
         <v>4007.334457982725</v>
       </c>
       <c r="T20" t="n">
-        <v>3835.991512301828</v>
+        <v>3835.991512301827</v>
       </c>
       <c r="U20" t="n">
         <v>3614.439973076747</v>
@@ -5789,13 +5789,13 @@
         <v>3315.306583058645</v>
       </c>
       <c r="W20" t="n">
-        <v>2994.467425114</v>
+        <v>2994.467425113999</v>
       </c>
       <c r="X20" t="n">
         <v>2652.931164178388</v>
       </c>
       <c r="Y20" t="n">
-        <v>2294.721329528045</v>
+        <v>2474.236923172646</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>81.43225808214882</v>
       </c>
       <c r="J21" t="n">
-        <v>81.43225808214882</v>
+        <v>205.7279980329771</v>
       </c>
       <c r="K21" t="n">
-        <v>346.0793523301365</v>
+        <v>496.3240398680471</v>
       </c>
       <c r="L21" t="n">
-        <v>783.1441335115054</v>
+        <v>933.388821049416</v>
       </c>
       <c r="M21" t="n">
-        <v>1312.534986308511</v>
+        <v>1462.779673846421</v>
       </c>
       <c r="N21" t="n">
-        <v>1870.345884643154</v>
+        <v>2020.590572181065</v>
       </c>
       <c r="O21" t="n">
-        <v>2358.414084216033</v>
+        <v>2508.658771753943</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.414084216033</v>
+        <v>2557.424193196089</v>
       </c>
       <c r="Q21" t="n">
         <v>2557.424193196089</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.8615978196016</v>
+        <v>800.861597819601</v>
       </c>
       <c r="C22" t="n">
-        <v>734.9421553677261</v>
+        <v>663.8549122171628</v>
       </c>
       <c r="D22" t="n">
-        <v>616.755013280859</v>
+        <v>545.6677701302957</v>
       </c>
       <c r="E22" t="n">
-        <v>500.7714170239345</v>
+        <v>429.6841738733713</v>
       </c>
       <c r="F22" t="n">
-        <v>385.8109668514928</v>
+        <v>385.8109668514929</v>
       </c>
       <c r="G22" t="n">
-        <v>250.3148420609539</v>
+        <v>250.314842060954</v>
       </c>
       <c r="H22" t="n">
         <v>138.4918416049116</v>
@@ -5914,46 +5914,46 @@
         <v>443.9056792595101</v>
       </c>
       <c r="L22" t="n">
-        <v>832.1536518510002</v>
+        <v>832.1536518509999</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.194684949353</v>
+        <v>1250.194684949352</v>
       </c>
       <c r="N22" t="n">
-        <v>1664.474356830195</v>
+        <v>1664.474356830194</v>
       </c>
       <c r="O22" t="n">
-        <v>2033.501324983835</v>
+        <v>2033.501324983834</v>
       </c>
       <c r="P22" t="n">
-        <v>2330.263556663728</v>
+        <v>2330.263556663727</v>
       </c>
       <c r="Q22" t="n">
-        <v>2461.918950693151</v>
+        <v>2461.91895069315</v>
       </c>
       <c r="R22" t="n">
-        <v>2416.482563165843</v>
+        <v>2416.482563165842</v>
       </c>
       <c r="S22" t="n">
-        <v>2261.557269175203</v>
+        <v>2261.557269175202</v>
       </c>
       <c r="T22" t="n">
-        <v>2072.904613064366</v>
+        <v>2072.904613064365</v>
       </c>
       <c r="U22" t="n">
-        <v>1815.746364306894</v>
+        <v>1815.746364306892</v>
       </c>
       <c r="V22" t="n">
-        <v>1592.991373426476</v>
+        <v>1592.991373426474</v>
       </c>
       <c r="W22" t="n">
-        <v>1335.503700714984</v>
+        <v>1335.503700714982</v>
       </c>
       <c r="X22" t="n">
         <v>1139.443647142434</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.5805653243726</v>
+        <v>950.5805653243721</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
         <v>1458.093420216582</v>
@@ -5975,7 +5975,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G23" t="n">
         <v>342.8002736162838</v>
@@ -5990,22 +5990,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
         <v>4142.907144767228</v>
@@ -6017,22 +6017,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6075,7 +6075,7 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>1084.28233189698</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
         <v>1662.137679823382</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G25" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897926</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443611</v>
@@ -6172,10 +6172,10 @@
         <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237501</v>
@@ -6209,67 +6209,67 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796676</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J26" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J27" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L27" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M27" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N27" t="n">
-        <v>1551.25253785418</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>2057.65749280243</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.644190323788</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502102</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477706</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609034</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749446</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6400,34 +6400,34 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J29" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6473,10 +6473,10 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
@@ -6485,28 +6485,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J30" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L30" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.315654538067</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N30" t="n">
-        <v>1662.137679823382</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O30" t="n">
-        <v>2168.542634771632</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749446</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J31" t="n">
-        <v>185.174278704279</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443618</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352545</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966198</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237504</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C32" t="n">
         <v>1784.429621497863</v>
@@ -6686,7 +6686,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6704,22 +6704,22 @@
         <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M32" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
         <v>4249.020448755811</v>
@@ -6728,7 +6728,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
         <v>3795.851627400161</v>
@@ -6777,25 +6777,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249807</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L33" t="n">
-        <v>841.8200879193082</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M33" t="n">
-        <v>1390.738552529597</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477725</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.684995803981</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315393</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749452</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.057470989794</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
@@ -6862,13 +6862,13 @@
         <v>459.5287020443616</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902789</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6880,16 +6880,16 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357084</v>
@@ -6898,10 +6898,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511625</v>
@@ -6938,7 +6938,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6950,7 +6950,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
@@ -6965,22 +6965,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>850.66941185518</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
-        <v>1428.524759781582</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502091</v>
+        <v>872.8624197502086</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477708</v>
+        <v>735.8557341477701</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609029</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039783</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315364</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749422</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7114,28 +7114,28 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.58138725498</v>
@@ -7160,37 +7160,37 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7199,7 +7199,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T38" t="n">
         <v>4017.391409283565</v>
@@ -7245,25 +7245,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L39" t="n">
-        <v>326.5159252754111</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.289737812102</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O39" t="n">
         <v>1959.694692760353</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315391</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749449</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897931</v>
@@ -7330,49 +7330,49 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.52870204436</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902775</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
         <v>1022.581387254981</v>
@@ -7388,19 +7388,19 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511625</v>
@@ -7418,19 +7418,19 @@
         <v>1336.032957050965</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R41" t="n">
         <v>4249.020448755812</v>
@@ -7439,22 +7439,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334505</v>
+        <v>216.557510983586</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277778</v>
+        <v>670.3561405779135</v>
       </c>
       <c r="M42" t="n">
-        <v>973.3971899277778</v>
+        <v>1219.274605188203</v>
       </c>
       <c r="N42" t="n">
-        <v>1551.25253785418</v>
+        <v>1797.129953114605</v>
       </c>
       <c r="O42" t="n">
-        <v>2057.65749280243</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P42" t="n">
         <v>2346.796248312508</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511625</v>
@@ -7570,10 +7570,10 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7582,10 +7582,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
@@ -7594,22 +7594,22 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C44" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E44" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7658,10 +7658,10 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
@@ -7670,28 +7670,28 @@
         <v>4142.907144767229</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
         <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L45" t="n">
-        <v>670.3561405779135</v>
+        <v>670.3561405779134</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.274605188203</v>
+        <v>1219.274605188202</v>
       </c>
       <c r="N45" t="n">
         <v>1797.129953114605</v>
       </c>
       <c r="O45" t="n">
-        <v>2303.534908062855</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P45" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q45" t="n">
         <v>2555.644190323788</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G46" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042779</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443607</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313935</v>
@@ -7825,13 +7825,13 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
         <v>2144.901839127668</v>
@@ -7843,7 +7843,7 @@
         <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073042</v>
@@ -10981,7 +10981,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446511</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -11224,7 +11224,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094449</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
         <v>171.8177168444618</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272265</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>106.7437663446525</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>252.2670593163934</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>180.6279978217943</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.0216967117962</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>107.1210694619363</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>91.27129359271279</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>288.3419405557222</v>
       </c>
       <c r="I14" t="n">
         <v>17.98965543945181</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>201.239718576303</v>
+        <v>4.169071613293426</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>36.94681504229771</v>
+        <v>16.13395659023871</v>
       </c>
       <c r="H16" t="n">
         <v>142.3149728036959</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.090921484066143</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>169.6295162240891</v>
       </c>
       <c r="U17" t="n">
-        <v>177.7204377081553</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>70.37637071905799</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>70.37637071905668</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>177.7204377081544</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>177.720437708155</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>70.37637071905709</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>70.37637071905775</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.975308805413079e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.488764832582092e-12</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.321609488513786e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.685851541173179e-12</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>940625.7738045715</v>
+        <v>940625.7738045712</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958836.6905042217</v>
+        <v>958836.6905042216</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>958836.6905042217</v>
+        <v>958836.6905042216</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958836.6905042217</v>
+        <v>958836.6905042216</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>958836.6905042217</v>
+        <v>958836.6905042216</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
         <v>409196.5187651045</v>
       </c>
       <c r="F2" t="n">
-        <v>450276.6622544647</v>
+        <v>450276.6622544648</v>
       </c>
       <c r="G2" t="n">
         <v>483123.7140752742</v>
@@ -26332,28 +26332,28 @@
         <v>483123.7140752742</v>
       </c>
       <c r="I2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="J2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="K2" t="n">
         <v>492625.0619185702</v>
       </c>
       <c r="L2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="N2" t="n">
+        <v>492625.0619185705</v>
+      </c>
+      <c r="O2" t="n">
         <v>492625.0619185703</v>
       </c>
-      <c r="M2" t="n">
-        <v>492625.0619185703</v>
-      </c>
-      <c r="N2" t="n">
-        <v>492625.0619185701</v>
-      </c>
-      <c r="O2" t="n">
-        <v>492625.0619185705</v>
-      </c>
       <c r="P2" t="n">
-        <v>492625.0619185706</v>
+        <v>492625.0619185702</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353244.2765738445</v>
+        <v>353244.2765738473</v>
       </c>
       <c r="C3" t="n">
-        <v>43511.74761819097</v>
+        <v>43511.74761818838</v>
       </c>
       <c r="D3" t="n">
-        <v>87233.51607513236</v>
+        <v>87233.51607513204</v>
       </c>
       <c r="E3" t="n">
-        <v>707780.8576429536</v>
+        <v>707780.857642954</v>
       </c>
       <c r="F3" t="n">
         <v>173736.0360376483</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177119</v>
+        <v>25288.16188177134</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39037.89416668102</v>
+        <v>39037.89416668107</v>
       </c>
       <c r="J3" t="n">
-        <v>5970.84163086483</v>
+        <v>5970.841630865412</v>
       </c>
       <c r="K3" t="n">
-        <v>6942.380109547207</v>
+        <v>6942.380109546739</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.1990219462</v>
+        <v>41060.19902194617</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383015</v>
       </c>
       <c r="N3" t="n">
-        <v>45679.31917376335</v>
+        <v>45679.31917376347</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346684.9826106116</v>
+        <v>346684.9826106107</v>
       </c>
       <c r="C4" t="n">
-        <v>333256.5422474307</v>
+        <v>333256.5422474306</v>
       </c>
       <c r="D4" t="n">
-        <v>305279.4906303398</v>
+        <v>305279.4906303399</v>
       </c>
       <c r="E4" t="n">
         <v>15259.89878720224</v>
@@ -26430,34 +26430,34 @@
         <v>15356.41826761659</v>
       </c>
       <c r="G4" t="n">
-        <v>46681.14996726693</v>
+        <v>46681.14996726691</v>
       </c>
       <c r="H4" t="n">
-        <v>46681.14996726694</v>
+        <v>46681.14996726691</v>
       </c>
       <c r="I4" t="n">
+        <v>46449.25880112081</v>
+      </c>
+      <c r="J4" t="n">
+        <v>46449.25880112067</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46449.25880112064</v>
+      </c>
+      <c r="L4" t="n">
         <v>46449.25880112079</v>
       </c>
-      <c r="J4" t="n">
-        <v>46449.25880112077</v>
-      </c>
-      <c r="K4" t="n">
-        <v>46449.25880112078</v>
-      </c>
-      <c r="L4" t="n">
-        <v>46449.25880112081</v>
-      </c>
       <c r="M4" t="n">
-        <v>46449.25880112076</v>
+        <v>46449.25880112067</v>
       </c>
       <c r="N4" t="n">
         <v>46449.25880112081</v>
       </c>
       <c r="O4" t="n">
-        <v>46449.2588011208</v>
+        <v>46449.25880112076</v>
       </c>
       <c r="P4" t="n">
-        <v>46449.2588011208</v>
+        <v>46449.25880112077</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42833.58292690792</v>
+        <v>42833.58292690806</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172271</v>
+        <v>50823.37311172269</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26488,10 +26488,10 @@
         <v>91620.84500680173</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="K5" t="n">
         <v>95106.4341021553</v>
@@ -26500,7 +26500,7 @@
         <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215528</v>
@@ -26509,7 +26509,7 @@
         <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250137.7801927942</v>
+        <v>-250137.7801927963</v>
       </c>
       <c r="C6" t="n">
-        <v>70550.0888624662</v>
+        <v>70550.08886246882</v>
       </c>
       <c r="D6" t="n">
-        <v>49288.68210137489</v>
+        <v>49288.68210137526</v>
       </c>
       <c r="E6" t="n">
-        <v>-388150.5782264447</v>
+        <v>-388498.1971562511</v>
       </c>
       <c r="F6" t="n">
-        <v>172220.8010439464</v>
+        <v>172044.3493786794</v>
       </c>
       <c r="G6" t="n">
-        <v>319533.5572194344</v>
+        <v>319493.9682700871</v>
       </c>
       <c r="H6" t="n">
-        <v>344821.7191012054</v>
+        <v>344782.1301518585</v>
       </c>
       <c r="I6" t="n">
-        <v>312031.474848613</v>
+        <v>312031.4748486129</v>
       </c>
       <c r="J6" t="n">
-        <v>345098.5273844292</v>
+        <v>345098.5273844288</v>
       </c>
       <c r="K6" t="n">
-        <v>344126.9889057468</v>
+        <v>344126.9889057475</v>
       </c>
       <c r="L6" t="n">
-        <v>310009.169993348</v>
+        <v>310009.1699933479</v>
       </c>
       <c r="M6" t="n">
-        <v>171819.7240769927</v>
+        <v>171819.7240769926</v>
       </c>
       <c r="N6" t="n">
-        <v>305390.0498415307</v>
+        <v>305390.049841531</v>
       </c>
       <c r="O6" t="n">
-        <v>351069.3690152945</v>
+        <v>351069.3690152944</v>
       </c>
       <c r="P6" t="n">
-        <v>351069.3690152945</v>
+        <v>351069.3690152941</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="K2" t="n">
+        <v>31.61020235221378</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="L2" t="n">
-        <v>31.61020235221395</v>
-      </c>
       <c r="M2" t="n">
+        <v>31.6102023522138</v>
+      </c>
+      <c r="N2" t="n">
+        <v>31.61020235221398</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221389</v>
       </c>
-      <c r="N2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221395</v>
-      </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622739</v>
+        <v>358.6466858622762</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985022</v>
+        <v>476.1157511985019</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985378859</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>1017.90322602686</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221401</v>
+        <v>31.61020235221411</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.6466858622739</v>
+        <v>358.6466858622762</v>
       </c>
       <c r="C3" t="n">
-        <v>38.21325740529414</v>
+        <v>38.21325740529187</v>
       </c>
       <c r="D3" t="n">
-        <v>79.25580793093417</v>
+        <v>79.25580793093388</v>
       </c>
       <c r="E3" t="n">
-        <v>613.660949394796</v>
+        <v>613.6609493947964</v>
       </c>
       <c r="F3" t="n">
         <v>152.1907655911209</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>36.19240443570334</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.82047985378859</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="C4" t="n">
-        <v>26.97452717333604</v>
+        <v>26.97452717333444</v>
       </c>
       <c r="D4" t="n">
-        <v>62.31765309779902</v>
+        <v>62.3176530977988</v>
       </c>
       <c r="E4" t="n">
-        <v>719.288795277369</v>
+        <v>719.2887952773693</v>
       </c>
       <c r="F4" t="n">
-        <v>186.5017706245674</v>
+        <v>186.5017706245673</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>44.35188616209257</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378859</v>
+        <v>22.82047985379064</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333626</v>
+        <v>26.97452717333444</v>
       </c>
       <c r="L4" t="n">
-        <v>62.3176530977988</v>
+        <v>62.31765309779834</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773696</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245671</v>
+        <v>186.501770624567</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.82047985378859</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="K4" t="n">
-        <v>26.97452717333604</v>
+        <v>26.97452717333444</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779902</v>
+        <v>62.3176530977988</v>
       </c>
       <c r="M4" t="n">
-        <v>719.288795277369</v>
+        <v>719.2887952773693</v>
       </c>
       <c r="N4" t="n">
-        <v>186.5017706245674</v>
+        <v>186.5017706245673</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27394,16 +27394,16 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>324.7090116772264</v>
+        <v>324.7090116772263</v>
       </c>
       <c r="I2" t="n">
-        <v>154.8910599957112</v>
+        <v>154.8910599957108</v>
       </c>
       <c r="J2" t="n">
-        <v>58.6752948615479</v>
+        <v>58.67529486154712</v>
       </c>
       <c r="K2" t="n">
-        <v>13.86754861127948</v>
+        <v>31.18016039800823</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18.39310061142209</v>
+        <v>23.90096867847501</v>
       </c>
       <c r="Q2" t="n">
-        <v>66.60797209390827</v>
+        <v>66.60797209390728</v>
       </c>
       <c r="R2" t="n">
-        <v>125.0173372883188</v>
+        <v>102.196857434528</v>
       </c>
       <c r="S2" t="n">
-        <v>176.1651495698169</v>
+        <v>176.1651495698167</v>
       </c>
       <c r="T2" t="n">
-        <v>216.7843887908164</v>
+        <v>216.7843887908163</v>
       </c>
       <c r="U2" t="n">
         <v>251.2303092500717</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>149.8880191345272</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>124.6245857108502</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>138.2415516427963</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5720884426767</v>
@@ -27476,10 +27476,10 @@
         <v>104.7850668566028</v>
       </c>
       <c r="I3" t="n">
-        <v>50.14174463659962</v>
+        <v>72.96222449038802</v>
       </c>
       <c r="J3" t="n">
-        <v>53.95452987271156</v>
+        <v>31.13405001892092</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27500,19 +27500,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.5095746017232</v>
+        <v>18.68909474793239</v>
       </c>
       <c r="R3" t="n">
-        <v>97.78325410484743</v>
+        <v>74.96277425105694</v>
       </c>
       <c r="S3" t="n">
-        <v>157.3542209658498</v>
+        <v>157.3542209658497</v>
       </c>
       <c r="T3" t="n">
         <v>197.0553295975817</v>
       </c>
       <c r="U3" t="n">
-        <v>225.890630191466</v>
+        <v>219.0629694408762</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27555,37 +27555,37 @@
         <v>156.47706662591</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0012415365632</v>
+        <v>136.001241536563</v>
       </c>
       <c r="J4" t="n">
-        <v>81.2709087188895</v>
+        <v>81.2709087188892</v>
       </c>
       <c r="K4" t="n">
-        <v>53.87383775545572</v>
+        <v>53.87383775545526</v>
       </c>
       <c r="L4" t="n">
-        <v>38.7320877469493</v>
+        <v>38.73208774694869</v>
       </c>
       <c r="M4" t="n">
-        <v>37.54636092591346</v>
+        <v>37.54636092591282</v>
       </c>
       <c r="N4" t="n">
-        <v>28.71669752884532</v>
+        <v>28.71669752884469</v>
       </c>
       <c r="O4" t="n">
-        <v>47.04278973402909</v>
+        <v>47.0427897340285</v>
       </c>
       <c r="P4" t="n">
-        <v>59.50774980797237</v>
+        <v>59.50774980797188</v>
       </c>
       <c r="Q4" t="n">
-        <v>97.34935206424248</v>
+        <v>97.34935206424214</v>
       </c>
       <c r="R4" t="n">
-        <v>148.2136125529923</v>
+        <v>148.2136125529921</v>
       </c>
       <c r="S4" t="n">
-        <v>212.7456849747103</v>
+        <v>212.7456849747102</v>
       </c>
       <c r="T4" t="n">
         <v>225.182246110982</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>387.8970045365302</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27637,7 +27637,7 @@
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>45.63689302957772</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0.2236106924079309</v>
       </c>
       <c r="R5" t="n">
-        <v>65.57242662105223</v>
+        <v>99.10632418716015</v>
       </c>
       <c r="S5" t="n">
         <v>172.6645079492214</v>
@@ -27707,10 +27707,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>120.0419036629528</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9912405093721</v>
+        <v>87.54325028331237</v>
       </c>
       <c r="I6" t="n">
         <v>20.3372734007017</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>294.7633856167878</v>
+        <v>325.5740782643993</v>
       </c>
       <c r="G8" t="n">
-        <v>301.2760442195641</v>
+        <v>301.2760442195644</v>
       </c>
       <c r="H8" t="n">
         <v>319.8727099068761</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>30.81069264761082</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>53.29137858519758</v>
+        <v>165.4040387101213</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>214.7171693596231</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452115</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27938,22 +27938,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>88.46778236099478</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>32.95655226846023</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>24.20675900740719</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>64.2628644631298</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867677</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>82.09559288881304</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
@@ -27989,16 +27989,16 @@
         <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>143.3083148872142</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.5823230359962</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>93.66032507855405</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>93.57003565238094</v>
       </c>
     </row>
     <row r="10">
@@ -28032,28 +28032,28 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971167</v>
+        <v>66.29456574971169</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>29.26310570632468</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>7.238823902544823</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412066</v>
+        <v>0.7157523946086468</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>13.4762806411652</v>
+        <v>17.10165812996885</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037925</v>
+        <v>33.88793923037932</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.61152319847201</v>
+        <v>79.61152319847206</v>
       </c>
       <c r="R10" t="n">
         <v>138.6889896488451</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I17" t="n">
-        <v>17.98965543945181</v>
+        <v>17.98965543945178</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I20" t="n">
         <v>17.98965543945178</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221399</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221396</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221392</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221378</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.6102023522138</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221398</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.441795722059392</v>
+        <v>1.441795722059401</v>
       </c>
       <c r="H2" t="n">
-        <v>14.76579043854075</v>
+        <v>14.76579043854084</v>
       </c>
       <c r="I2" t="n">
-        <v>55.58482957469474</v>
+        <v>55.58482957469509</v>
       </c>
       <c r="J2" t="n">
-        <v>122.3706096651384</v>
+        <v>122.3706096651392</v>
       </c>
       <c r="K2" t="n">
-        <v>183.4018225799125</v>
+        <v>183.4018225799136</v>
       </c>
       <c r="L2" t="n">
-        <v>227.5261784088876</v>
+        <v>227.5261784088891</v>
       </c>
       <c r="M2" t="n">
-        <v>253.1667130810613</v>
+        <v>253.1667130810629</v>
       </c>
       <c r="N2" t="n">
-        <v>252.2335434503795</v>
+        <v>252.2335434503811</v>
       </c>
       <c r="O2" t="n">
-        <v>242.9263589651345</v>
+        <v>242.926358965136</v>
       </c>
       <c r="P2" t="n">
-        <v>207.3320270767932</v>
+        <v>207.3320270767945</v>
       </c>
       <c r="Q2" t="n">
-        <v>155.6977177805412</v>
+        <v>155.6977177805422</v>
       </c>
       <c r="R2" t="n">
-        <v>90.56820052581332</v>
+        <v>90.56820052581391</v>
       </c>
       <c r="S2" t="n">
-        <v>32.85492001642842</v>
+        <v>32.85492001642862</v>
       </c>
       <c r="T2" t="n">
-        <v>6.311460773314989</v>
+        <v>6.311460773315029</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1153436577647513</v>
+        <v>0.115343657764752</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7714287205339476</v>
+        <v>0.7714287205339525</v>
       </c>
       <c r="H3" t="n">
-        <v>7.450377379893654</v>
+        <v>7.450377379893701</v>
       </c>
       <c r="I3" t="n">
-        <v>26.5601555096118</v>
+        <v>26.56015550961197</v>
       </c>
       <c r="J3" t="n">
-        <v>72.88309679395513</v>
+        <v>72.88309679395559</v>
       </c>
       <c r="K3" t="n">
-        <v>124.5688210697296</v>
+        <v>124.5688210697304</v>
       </c>
       <c r="L3" t="n">
-        <v>161.3748596336628</v>
+        <v>161.3748596336644</v>
       </c>
       <c r="M3" t="n">
-        <v>164.9545137758069</v>
+        <v>150.6978305711075</v>
       </c>
       <c r="N3" t="n">
-        <v>154.1621919371219</v>
+        <v>154.1621919371235</v>
       </c>
       <c r="O3" t="n">
-        <v>151.1600410935331</v>
+        <v>165.4167242982346</v>
       </c>
       <c r="P3" t="n">
-        <v>147.3090510289781</v>
+        <v>147.3090510289791</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.47219948429832</v>
+        <v>98.47219948429894</v>
       </c>
       <c r="R3" t="n">
-        <v>47.89624985911652</v>
+        <v>47.89624985911683</v>
       </c>
       <c r="S3" t="n">
-        <v>14.32895013798801</v>
+        <v>14.3289501379881</v>
       </c>
       <c r="T3" t="n">
-        <v>3.109399097239902</v>
+        <v>3.109399097239922</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05075188950881237</v>
+        <v>0.05075188950881269</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6467399253254119</v>
+        <v>0.646739925325416</v>
       </c>
       <c r="H4" t="n">
-        <v>5.750105881529575</v>
+        <v>5.750105881529612</v>
       </c>
       <c r="I4" t="n">
-        <v>19.44923339069512</v>
+        <v>19.44923339069524</v>
       </c>
       <c r="J4" t="n">
-        <v>45.72451272050662</v>
+        <v>45.72451272050691</v>
       </c>
       <c r="K4" t="n">
-        <v>75.13942041507966</v>
+        <v>75.13942041508012</v>
       </c>
       <c r="L4" t="n">
-        <v>96.15258853428898</v>
+        <v>96.15258853428959</v>
       </c>
       <c r="M4" t="n">
-        <v>101.3794230216916</v>
+        <v>101.3794230216922</v>
       </c>
       <c r="N4" t="n">
-        <v>98.96884693638788</v>
+        <v>98.9688469363885</v>
       </c>
       <c r="O4" t="n">
-        <v>91.4137487178137</v>
+        <v>91.41374871781429</v>
       </c>
       <c r="P4" t="n">
-        <v>78.22025424117524</v>
+        <v>78.22025424117574</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.15564956520335</v>
+        <v>54.1556495652037</v>
       </c>
       <c r="R4" t="n">
-        <v>29.07977882417715</v>
+        <v>29.07977882417733</v>
       </c>
       <c r="S4" t="n">
-        <v>11.27091306226195</v>
+        <v>11.27091306226202</v>
       </c>
       <c r="T4" t="n">
-        <v>2.763343317299487</v>
+        <v>2.763343317299504</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03527672319956796</v>
+        <v>0.03527672319956818</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31373,7 +31373,7 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>163.8914845489273</v>
+        <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
         <v>181.1367191104579</v>
@@ -31382,7 +31382,7 @@
         <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543445</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647244</v>
+        <v>1.914033170647242</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889109</v>
+        <v>19.60209220889108</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137793</v>
+        <v>73.79076381137789</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172216</v>
+        <v>162.4511728172215</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307195</v>
+        <v>243.4721969307194</v>
       </c>
       <c r="L8" t="n">
-        <v>302.0487895769152</v>
+        <v>302.048789576915</v>
       </c>
       <c r="M8" t="n">
-        <v>336.087476975413</v>
+        <v>336.0874769754129</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215146</v>
+        <v>341.5257237215143</v>
       </c>
       <c r="O8" t="n">
-        <v>322.493056380891</v>
+        <v>322.4930563808908</v>
       </c>
       <c r="P8" t="n">
-        <v>275.2403624805372</v>
+        <v>275.240362480537</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567327</v>
+        <v>206.6940495567326</v>
       </c>
       <c r="R8" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612411</v>
+        <v>43.61603087612408</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508314</v>
+        <v>8.378680204508308</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1531226536517794</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444359</v>
+        <v>9.890630982444353</v>
       </c>
       <c r="I9" t="n">
-        <v>35.25951553687022</v>
+        <v>35.2595155368702</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798998</v>
+        <v>96.75480562798992</v>
       </c>
       <c r="K9" t="n">
-        <v>165.3693736969364</v>
+        <v>165.3693736969363</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837911</v>
+        <v>222.3595307837909</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>254.2466940469417</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>189.1706736602743</v>
       </c>
       <c r="O9" t="n">
-        <v>243.6589731628788</v>
+        <v>243.6589731628786</v>
       </c>
       <c r="P9" t="n">
-        <v>141.2741087697571</v>
+        <v>195.5578073177394</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102001</v>
+        <v>130.7252153102</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515094</v>
+        <v>63.58391107515091</v>
       </c>
       <c r="S9" t="n">
-        <v>19.0221717577892</v>
+        <v>19.02217175778919</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730409</v>
+        <v>4.127833729730407</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.06737487045261822</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.8585693874071345</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674351</v>
+        <v>7.633462371674347</v>
       </c>
       <c r="I10" t="n">
-        <v>25.8195230322073</v>
+        <v>25.81952303220729</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968445</v>
+        <v>60.70085568968441</v>
       </c>
       <c r="K10" t="n">
-        <v>99.75015246421076</v>
+        <v>99.7501524642107</v>
       </c>
       <c r="L10" t="n">
         <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>134.584654064193</v>
+        <v>134.5846540641929</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020392</v>
+        <v>131.3845318020391</v>
       </c>
       <c r="O10" t="n">
-        <v>121.354880321874</v>
+        <v>121.3548803218739</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187684</v>
+        <v>103.8400648187683</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097383</v>
+        <v>71.89347843097379</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832445</v>
+        <v>38.60440172832442</v>
       </c>
       <c r="S10" t="n">
-        <v>14.96252286963161</v>
+        <v>14.9625228696316</v>
       </c>
       <c r="T10" t="n">
-        <v>3.668432837103212</v>
+        <v>3.66843283710321</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.04683105749493467</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>431.3727943633185</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>580.0339567307517</v>
       </c>
       <c r="M15" t="n">
         <v>676.8722690705084</v>
@@ -32090,16 +32090,16 @@
         <v>694.7870639365083</v>
       </c>
       <c r="O15" t="n">
-        <v>635.5944258311905</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>423.6916737208542</v>
+        <v>455.0285420140203</v>
       </c>
       <c r="Q15" t="n">
         <v>341.0020861870881</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>165.8612401066665</v>
       </c>
       <c r="S15" t="n">
         <v>49.6201152763303</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.992834034912234</v>
+        <v>4.992834034912235</v>
       </c>
       <c r="H17" t="n">
-        <v>51.13286156004493</v>
+        <v>51.13286156004494</v>
       </c>
       <c r="I17" t="n">
         <v>192.4862341309541</v>
       </c>
       <c r="J17" t="n">
-        <v>423.7605476706326</v>
+        <v>423.7605476706327</v>
       </c>
       <c r="K17" t="n">
-        <v>635.1072123684676</v>
+        <v>635.1072123684677</v>
       </c>
       <c r="L17" t="n">
-        <v>787.9066569644131</v>
+        <v>787.9066569644132</v>
       </c>
       <c r="M17" t="n">
-        <v>876.6979692327835</v>
+        <v>876.6979692327836</v>
       </c>
       <c r="N17" t="n">
-        <v>890.883858934478</v>
+        <v>890.8838589344781</v>
       </c>
       <c r="O17" t="n">
-        <v>841.2363654998194</v>
+        <v>841.2363654998195</v>
       </c>
       <c r="P17" t="n">
-        <v>717.9757752629234</v>
+        <v>717.9757752629235</v>
       </c>
       <c r="Q17" t="n">
-        <v>539.1699063876289</v>
+        <v>539.169906387629</v>
       </c>
       <c r="R17" t="n">
-        <v>313.6311109455559</v>
+        <v>313.631110945556</v>
       </c>
       <c r="S17" t="n">
         <v>113.7742055705627</v>
@@ -32266,7 +32266,7 @@
         <v>21.85613098782832</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3994267227929786</v>
+        <v>0.3994267227929788</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>2.67140171971743</v>
       </c>
       <c r="H18" t="n">
-        <v>25.80011660884992</v>
+        <v>25.80011660884993</v>
       </c>
       <c r="I18" t="n">
-        <v>91.97589254290276</v>
+        <v>91.97589254290277</v>
       </c>
       <c r="J18" t="n">
-        <v>252.3888791422507</v>
+        <v>252.3888791422508</v>
       </c>
       <c r="K18" t="n">
-        <v>431.3727943633185</v>
+        <v>431.3727943633186</v>
       </c>
       <c r="L18" t="n">
-        <v>580.0339567307517</v>
+        <v>580.0339567307518</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>676.8722690705085</v>
       </c>
       <c r="N18" t="n">
-        <v>694.7870639365083</v>
+        <v>694.7870639365084</v>
       </c>
       <c r="O18" t="n">
-        <v>635.5944258311905</v>
+        <v>308.7062729782972</v>
       </c>
       <c r="P18" t="n">
-        <v>510.1205617239363</v>
+        <v>510.1205617239364</v>
       </c>
       <c r="Q18" t="n">
-        <v>341.0020861870881</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>152.5092741584945</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>49.6201152763303</v>
+        <v>49.62011527633031</v>
       </c>
       <c r="T18" t="n">
-        <v>10.76762359833472</v>
+        <v>10.76762359833473</v>
       </c>
       <c r="U18" t="n">
         <v>0.1757501131393047</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.239613463611247</v>
+        <v>2.239613463611248</v>
       </c>
       <c r="H19" t="n">
-        <v>19.91219970374365</v>
+        <v>19.91219970374366</v>
       </c>
       <c r="I19" t="n">
-        <v>67.35128488750917</v>
+        <v>67.35128488750918</v>
       </c>
       <c r="J19" t="n">
         <v>158.3406718773152</v>
@@ -32400,28 +32400,28 @@
         <v>332.9694416718032</v>
       </c>
       <c r="M19" t="n">
-        <v>351.0695904822612</v>
+        <v>351.0695904822613</v>
       </c>
       <c r="N19" t="n">
-        <v>342.7219402997105</v>
+        <v>342.7219402997106</v>
       </c>
       <c r="O19" t="n">
-        <v>316.5591830202517</v>
+        <v>316.5591830202518</v>
       </c>
       <c r="P19" t="n">
-        <v>270.871068362582</v>
+        <v>270.8710683625821</v>
       </c>
       <c r="Q19" t="n">
         <v>187.5370873938473</v>
       </c>
       <c r="R19" t="n">
-        <v>100.7011653729202</v>
+        <v>100.7011653729203</v>
       </c>
       <c r="S19" t="n">
         <v>39.03035463402509</v>
       </c>
       <c r="T19" t="n">
-        <v>9.569257526338964</v>
+        <v>9.569257526338966</v>
       </c>
       <c r="U19" t="n">
         <v>0.1221607343787955</v>
@@ -32549,10 +32549,10 @@
         <v>91.97589254290277</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>252.3888791422508</v>
       </c>
       <c r="K21" t="n">
-        <v>405.1617361945487</v>
+        <v>431.3727943633186</v>
       </c>
       <c r="L21" t="n">
         <v>580.0339567307518</v>
@@ -32567,10 +32567,10 @@
         <v>635.5944258311906</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>183.2324088710428</v>
       </c>
       <c r="Q21" t="n">
-        <v>341.0020861870882</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,10 +32795,10 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>254.1392278303035</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>272.5760810583997</v>
       </c>
       <c r="O24" t="n">
         <v>654.1164009578283</v>
@@ -32938,46 +32938,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I26" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R26" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S26" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T26" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,34 +33017,34 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H27" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J27" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K27" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>663.5877533333036</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P27" t="n">
-        <v>426.0337564144093</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33099,7 +33099,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I28" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J28" t="n">
         <v>162.9549067838147</v>
@@ -33108,13 +33108,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L28" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M28" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N28" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O28" t="n">
         <v>325.7840929246177</v>
@@ -33129,10 +33129,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33175,46 +33175,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I29" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R29" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T29" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,31 +33254,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J30" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N30" t="n">
-        <v>272.5760810583992</v>
+        <v>663.5877533333036</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33336,7 +33336,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838147</v>
@@ -33345,13 +33345,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O31" t="n">
         <v>325.7840929246177</v>
@@ -33366,10 +33366,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33497,28 +33497,28 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K33" t="n">
         <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
-        <v>596.9368339155585</v>
+        <v>545.4906045327996</v>
       </c>
       <c r="M33" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
-        <v>194.5247275202073</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,16 +33734,16 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>457.1748150187216</v>
+        <v>645.1509001052082</v>
       </c>
       <c r="N36" t="n">
         <v>715.033982716063</v>
@@ -33752,13 +33752,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486998</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I38" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L38" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R38" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
         <v>117.0897208110796</v>
@@ -33925,7 +33925,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L39" t="n">
-        <v>382.529648770071</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160628</v>
+        <v>573.1387203886723</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691326</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T39" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,10 +34050,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J40" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K40" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
         <v>342.6725659692048</v>
@@ -34065,22 +34065,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P40" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q40" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R40" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34211,22 +34211,22 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
-        <v>443.9435090247271</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N42" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>306.8030521674217</v>
       </c>
       <c r="P42" t="n">
-        <v>426.0337564144093</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q42" t="n">
         <v>350.9392912691327</v>
@@ -34460,13 +34460,13 @@
         <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578284</v>
+        <v>306.8030521674219</v>
       </c>
       <c r="P45" t="n">
-        <v>388.6302480819394</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>22.82047985378859</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="N2" t="n">
-        <v>22.82047985378859</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="O2" t="n">
-        <v>12.82814754344776</v>
+        <v>12.82814754344929</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22.82047985378859</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="M3" t="n">
-        <v>22.82047985378859</v>
+        <v>8.563796649089237</v>
       </c>
       <c r="N3" t="n">
-        <v>22.82047985378859</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="O3" t="n">
-        <v>8.563796649088637</v>
+        <v>22.82047985379018</v>
       </c>
       <c r="P3" t="n">
-        <v>13.33464361464789</v>
+        <v>13.33464361464883</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
         <v>49.79500702712463</v>
@@ -35030,7 +35030,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400142784</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573897</v>
+        <v>23.38234588573883</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692793</v>
+        <v>66.28237460692776</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481403</v>
+        <v>105.7412437481401</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920428</v>
+        <v>92.39484495920411</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526762</v>
+        <v>44.00736672526745</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.52793472257738</v>
+        <v>27.5279347225773</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>83.80515100391676</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249237</v>
+        <v>57.82896157694098</v>
       </c>
       <c r="O9" t="n">
-        <v>101.0627287184343</v>
+        <v>101.0627287184342</v>
       </c>
       <c r="P9" t="n">
-        <v>7.299701355426831</v>
+        <v>61.58339990340917</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336806027</v>
+        <v>3.698987336805942</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>293.5313553889595</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>441.4795769508775</v>
       </c>
       <c r="M15" t="n">
         <v>534.73823514849</v>
@@ -35738,16 +35738,16 @@
         <v>563.445351853175</v>
       </c>
       <c r="O15" t="n">
-        <v>492.9981813867461</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>289.7172663065239</v>
+        <v>321.05413459969</v>
       </c>
       <c r="Q15" t="n">
         <v>201.0203121010666</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.1817361427025</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>242.7146431439463</v>
+        <v>242.7146431439464</v>
       </c>
       <c r="K17" t="n">
-        <v>415.017361323487</v>
+        <v>415.0173613234871</v>
       </c>
       <c r="L17" t="n">
         <v>552.1402419944259</v>
       </c>
       <c r="M17" t="n">
-        <v>646.3517360055108</v>
+        <v>646.3517360055109</v>
       </c>
       <c r="N17" t="n">
-        <v>661.470795337887</v>
+        <v>661.4707953378872</v>
       </c>
       <c r="O17" t="n">
-        <v>611.1381540781326</v>
+        <v>611.1381540781327</v>
       </c>
       <c r="P17" t="n">
-        <v>486.7427795076539</v>
+        <v>486.742779507654</v>
       </c>
       <c r="Q17" t="n">
-        <v>316.8642165131794</v>
+        <v>316.8642165131795</v>
       </c>
       <c r="R17" t="n">
-        <v>98.04557313142379</v>
+        <v>98.04557313142385</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>125.5512524755841</v>
       </c>
       <c r="K18" t="n">
-        <v>293.5313553889595</v>
+        <v>293.5313553889596</v>
       </c>
       <c r="L18" t="n">
-        <v>441.4795769508775</v>
+        <v>441.4795769508776</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>534.7382351484903</v>
       </c>
       <c r="N18" t="n">
-        <v>563.445351853175</v>
+        <v>563.4453518531751</v>
       </c>
       <c r="O18" t="n">
-        <v>492.9981813867461</v>
+        <v>166.1100285338528</v>
       </c>
       <c r="P18" t="n">
-        <v>376.1461543096061</v>
+        <v>376.1461543096062</v>
       </c>
       <c r="Q18" t="n">
-        <v>201.0203121010666</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.829770194530504</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>125.5512524755841</v>
       </c>
       <c r="K21" t="n">
-        <v>267.3202972201897</v>
+        <v>293.5313553889596</v>
       </c>
       <c r="L21" t="n">
         <v>441.4795769508776</v>
@@ -36215,10 +36215,10 @@
         <v>492.9981813867462</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>49.25800145671258</v>
       </c>
       <c r="Q21" t="n">
-        <v>201.0203121010667</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>96.59169411285644</v>
+        <v>96.59169411285642</v>
       </c>
       <c r="K22" t="n">
         <v>269.5430747531651</v>
@@ -36285,16 +36285,16 @@
         <v>392.1696692843333</v>
       </c>
       <c r="M22" t="n">
-        <v>422.2636697963159</v>
+        <v>422.2636697963158</v>
       </c>
       <c r="N22" t="n">
         <v>418.4643150311531</v>
       </c>
       <c r="O22" t="n">
-        <v>372.7545132865055</v>
+        <v>372.7545132865054</v>
       </c>
       <c r="P22" t="n">
-        <v>299.7598299796896</v>
+        <v>299.7598299796895</v>
       </c>
       <c r="Q22" t="n">
         <v>132.9852464943669</v>
@@ -36443,10 +36443,10 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>112.0051939082852</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>141.2343689750664</v>
       </c>
       <c r="O24" t="n">
         <v>511.5201565133839</v>
@@ -36516,16 +36516,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L26" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K27" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>532.2460412499703</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P27" t="n">
-        <v>292.059349000079</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R29" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.9061636449189</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N30" t="n">
-        <v>141.2343689750659</v>
+        <v>532.2460412499703</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K33" t="n">
         <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
-        <v>458.3824541356843</v>
+        <v>406.9362247529255</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>63.18301543687397</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>315.0407810967033</v>
+        <v>503.0168661831898</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327297</v>
@@ -37400,13 +37400,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817348</v>
@@ -37473,16 +37473,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P38" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R38" t="n">
         <v>107.1851555440239</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L39" t="n">
-        <v>243.9752689901968</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327296</v>
+        <v>441.7970083053389</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831111</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414964</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553059</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
-        <v>306.1020700503681</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>164.2068077229773</v>
       </c>
       <c r="P42" t="n">
-        <v>292.059349000079</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q42" t="n">
         <v>210.9575171831112</v>
@@ -37938,19 +37938,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895091</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38108,13 +38108,13 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>511.520156513384</v>
+        <v>164.2068077229775</v>
       </c>
       <c r="P45" t="n">
-        <v>254.6558406676091</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193552</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
